--- a/Testdata/Testdata.xlsx
+++ b/Testdata/Testdata.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="156">
   <si>
     <t>Sno</t>
   </si>
@@ -221,10 +221,274 @@
     <t>month</t>
   </si>
   <si>
-    <t>year</t>
-  </si>
-  <si>
     <t>abdnvnk@gmail.com</t>
+  </si>
+  <si>
+    <t>abcde@gmail.com</t>
+  </si>
+  <si>
+    <t>abcdef@gmail.com</t>
+  </si>
+  <si>
+    <t>abcdefg@gmail.com</t>
+  </si>
+  <si>
+    <t>adefgh@gmail.com</t>
+  </si>
+  <si>
+    <t>adefgi@gmail.com</t>
+  </si>
+  <si>
+    <t>adefgj@gmail.com</t>
+  </si>
+  <si>
+    <t>abefgk@gmail.com</t>
+  </si>
+  <si>
+    <t>abefgl@gmail.com</t>
+  </si>
+  <si>
+    <t>adefgm@gmail.com</t>
+  </si>
+  <si>
+    <t>rajesh</t>
+  </si>
+  <si>
+    <t>ranu</t>
+  </si>
+  <si>
+    <t>rekka</t>
+  </si>
+  <si>
+    <t>raudu</t>
+  </si>
+  <si>
+    <t>ravan</t>
+  </si>
+  <si>
+    <t>naveen</t>
+  </si>
+  <si>
+    <t>koritala</t>
+  </si>
+  <si>
+    <t>gopi</t>
+  </si>
+  <si>
+    <t>pavan</t>
+  </si>
+  <si>
+    <t>uppala</t>
+  </si>
+  <si>
+    <t>udatha</t>
+  </si>
+  <si>
+    <t>paritala</t>
+  </si>
+  <si>
+    <t>palanki</t>
+  </si>
+  <si>
+    <t>palepu</t>
+  </si>
+  <si>
+    <t>marri</t>
+  </si>
+  <si>
+    <t>sai</t>
+  </si>
+  <si>
+    <t>pinisati</t>
+  </si>
+  <si>
+    <t>molali</t>
+  </si>
+  <si>
+    <t>kukatpally,srnager,500073</t>
+  </si>
+  <si>
+    <t>kukatpally,srnager,500074</t>
+  </si>
+  <si>
+    <t>kukatpally,srnager,500075</t>
+  </si>
+  <si>
+    <t>kukatpally,srnager,500076</t>
+  </si>
+  <si>
+    <t>kukatpally,srnager,500077</t>
+  </si>
+  <si>
+    <t>kukatpally,srnager,500078</t>
+  </si>
+  <si>
+    <t>kukatpally,srnager,500079</t>
+  </si>
+  <si>
+    <t>kukatpally,srnager,500080</t>
+  </si>
+  <si>
+    <t>kukatpally,srnager,500081</t>
+  </si>
+  <si>
+    <t>jdfs@gmail.com</t>
+  </si>
+  <si>
+    <t>pqrstv@gmai.com</t>
+  </si>
+  <si>
+    <t>sfhuedeh@gmail.com</t>
+  </si>
+  <si>
+    <t>dfgigji@gmail.com</t>
+  </si>
+  <si>
+    <t>sesaf@gmail.com</t>
+  </si>
+  <si>
+    <t>fdsrfeudfh@gmail.com</t>
+  </si>
+  <si>
+    <t>dsghdw@gmail.com</t>
+  </si>
+  <si>
+    <t>kukatpally,srnager,500082</t>
+  </si>
+  <si>
+    <t>kukatpally,srnager,500083</t>
+  </si>
+  <si>
+    <t>kukatpally,srnager,500084</t>
+  </si>
+  <si>
+    <t>kukatpally,srnager,500085</t>
+  </si>
+  <si>
+    <t>kukatpally,srnager,500086</t>
+  </si>
+  <si>
+    <t>kukatpally,srnager,500087</t>
+  </si>
+  <si>
+    <t>kukatpally,srnager,500088</t>
+  </si>
+  <si>
+    <t>Birthyear</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>fdsfg@gmail.com</t>
+  </si>
+  <si>
+    <t>fds</t>
+  </si>
+  <si>
+    <t>kukatpally,srnager,500089</t>
+  </si>
+  <si>
+    <t>sgwy@gmail.com</t>
+  </si>
+  <si>
+    <t>gd</t>
+  </si>
+  <si>
+    <t>kukatpally,srnager,500090</t>
+  </si>
+  <si>
+    <t>rdv@gmail.com</t>
+  </si>
+  <si>
+    <t>gfdfg</t>
+  </si>
+  <si>
+    <t>kukatpally,srnager,500091</t>
+  </si>
+  <si>
+    <t>pwer@gmail.com</t>
+  </si>
+  <si>
+    <t>gfv</t>
+  </si>
+  <si>
+    <t>kukatpally,srnager,500092</t>
+  </si>
+  <si>
+    <t>pwerdsa@gmail.com</t>
+  </si>
+  <si>
+    <t>dtgr</t>
+  </si>
+  <si>
+    <t>kukatpally,srnager,500093</t>
+  </si>
+  <si>
+    <t>ral@gmail.com</t>
+  </si>
+  <si>
+    <t>pal@gmail.com</t>
+  </si>
+  <si>
+    <t>rahul</t>
+  </si>
+  <si>
+    <t>priti</t>
+  </si>
+  <si>
+    <t>srikanth</t>
+  </si>
+  <si>
+    <t>patipati</t>
+  </si>
+  <si>
+    <t>kakera</t>
+  </si>
+  <si>
+    <t>urabindi</t>
+  </si>
+  <si>
+    <t>kukatpally,srnager,500094</t>
+  </si>
+  <si>
+    <t>kukatpally,srnager,500095</t>
+  </si>
+  <si>
+    <t>kukatpally,srnager,500096</t>
+  </si>
+  <si>
+    <t>powder@gmail.com</t>
+  </si>
+  <si>
+    <t>nmhp123@gmail.com</t>
+  </si>
+  <si>
+    <t>kukatpally,srnager,500097</t>
+  </si>
+  <si>
+    <t>kukatpally,srnager,500098</t>
+  </si>
+  <si>
+    <t>kukatpally,srnager,500099</t>
+  </si>
+  <si>
+    <t>kbr143@gmail.com</t>
+  </si>
+  <si>
+    <t>hyd19638@gmail.com</t>
+  </si>
+  <si>
+    <t>kuka153@gmail.com</t>
+  </si>
+  <si>
+    <t>kukatpally,srnager,500100</t>
   </si>
 </sst>
 </file>
@@ -276,7 +540,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -299,12 +563,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -334,6 +609,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -746,10 +1034,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="G16" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -759,18 +1047,19 @@
     <col min="3" max="3" width="21.5703125" style="4" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" style="4" customWidth="1"/>
     <col min="5" max="5" width="20.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" customWidth="1"/>
-    <col min="12" max="12" width="17" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" customWidth="1"/>
-    <col min="15" max="15" width="14" customWidth="1"/>
-    <col min="16" max="16" width="7" customWidth="1"/>
+    <col min="6" max="7" width="11.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" customWidth="1"/>
+    <col min="13" max="13" width="17" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" customWidth="1"/>
+    <col min="16" max="16" width="14" customWidth="1"/>
+    <col min="17" max="17" width="7" customWidth="1"/>
+    <col min="20" max="20" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="8" customFormat="1">
+    <row r="1" spans="1:20" s="8" customFormat="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -790,46 +1079,49 @@
         <v>52</v>
       </c>
       <c r="G1" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="R1" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="S1" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="S1" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -848,47 +1140,50 @@
       <c r="F2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="6">
+      <c r="I2" s="6">
         <v>8096282209</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="6">
+      <c r="N2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="6">
         <v>56000</v>
       </c>
-      <c r="O2" s="6">
+      <c r="P2" s="6">
         <v>8096282209</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="12">
+      <c r="R2" s="12">
         <v>23</v>
       </c>
-      <c r="R2" s="13">
-        <v>5</v>
-      </c>
       <c r="S2" s="13">
+        <v>5</v>
+      </c>
+      <c r="T2" s="13">
         <v>1993</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -907,47 +1202,50 @@
       <c r="F3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="6">
+      <c r="I3" s="6">
         <v>80962822091</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="6">
+      <c r="N3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="6">
         <v>56000</v>
       </c>
-      <c r="O3" s="6">
+      <c r="P3" s="6">
         <v>8096282208</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="Q3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="Q3" s="12">
+      <c r="R3" s="12">
         <v>14</v>
       </c>
-      <c r="R3" s="13">
+      <c r="S3" s="13">
         <v>2</v>
       </c>
-      <c r="S3" s="13">
+      <c r="T3" s="13">
         <v>1990</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -961,49 +1259,1850 @@
         <v>3</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="6">
+      <c r="I4" s="6">
         <v>80962822092</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="M4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N4" s="6">
+      <c r="N4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="6">
         <v>56000</v>
       </c>
-      <c r="O4" s="6">
+      <c r="P4" s="6">
         <v>8096282207</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="Q4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="Q4" s="12">
-        <v>5</v>
-      </c>
-      <c r="R4" s="13">
+      <c r="R4" s="12">
         <v>5</v>
       </c>
       <c r="S4" s="13">
+        <v>5</v>
+      </c>
+      <c r="T4" s="13">
         <v>2005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="10">
+        <v>4</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" s="10">
+        <v>80962822093</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="10">
+        <v>56000</v>
+      </c>
+      <c r="P5" s="10">
+        <v>8096282207</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="R5" s="12">
+        <v>5</v>
+      </c>
+      <c r="S5" s="13">
+        <v>5</v>
+      </c>
+      <c r="T5" s="13">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="10">
+        <v>5</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6" s="10">
+        <v>80962822094</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="10">
+        <v>56000</v>
+      </c>
+      <c r="P6" s="10">
+        <v>8096282207</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="R6" s="12">
+        <v>5</v>
+      </c>
+      <c r="S6" s="13">
+        <v>5</v>
+      </c>
+      <c r="T6" s="13">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="10">
+        <v>6</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7" s="10">
+        <v>80962822095</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="10">
+        <v>56000</v>
+      </c>
+      <c r="P7" s="10">
+        <v>8096282207</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="R7" s="12">
+        <v>5</v>
+      </c>
+      <c r="S7" s="13">
+        <v>5</v>
+      </c>
+      <c r="T7" s="13">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="10">
+        <v>7</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="10">
+        <v>80962822096</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="10">
+        <v>56000</v>
+      </c>
+      <c r="P8" s="10">
+        <v>8096282207</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="R8" s="12">
+        <v>5</v>
+      </c>
+      <c r="S8" s="13">
+        <v>5</v>
+      </c>
+      <c r="T8" s="13">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="10">
+        <v>8</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" s="10">
+        <v>80962822097</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9" s="10">
+        <v>56000</v>
+      </c>
+      <c r="P9" s="10">
+        <v>8096282207</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="R9" s="12">
+        <v>5</v>
+      </c>
+      <c r="S9" s="13">
+        <v>5</v>
+      </c>
+      <c r="T9" s="13">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="10">
+        <v>9</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="10">
+        <v>80962822098</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" s="10">
+        <v>56000</v>
+      </c>
+      <c r="P10" s="10">
+        <v>8096282207</v>
+      </c>
+      <c r="Q10" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="R10" s="12">
+        <v>5</v>
+      </c>
+      <c r="S10" s="13">
+        <v>5</v>
+      </c>
+      <c r="T10" s="13">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="10">
+        <v>10</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" s="10">
+        <v>80962822099</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="10">
+        <v>56000</v>
+      </c>
+      <c r="P11" s="10">
+        <v>8096282207</v>
+      </c>
+      <c r="Q11" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="R11" s="12">
+        <v>5</v>
+      </c>
+      <c r="S11" s="13">
+        <v>5</v>
+      </c>
+      <c r="T11" s="13">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="10">
+        <v>11</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12" s="10">
+        <v>80962822090</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12" s="10">
+        <v>56000</v>
+      </c>
+      <c r="P12" s="10">
+        <v>8096282207</v>
+      </c>
+      <c r="Q12" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="R12" s="12">
+        <v>5</v>
+      </c>
+      <c r="S12" s="13">
+        <v>5</v>
+      </c>
+      <c r="T12" s="13">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="10">
+        <v>12</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="I13" s="10">
+        <v>80962822091</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O13" s="10">
+        <v>56000</v>
+      </c>
+      <c r="P13" s="10">
+        <v>8096282207</v>
+      </c>
+      <c r="Q13" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="R13" s="12">
+        <v>5</v>
+      </c>
+      <c r="S13" s="13">
+        <v>5</v>
+      </c>
+      <c r="T13" s="13">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="10">
+        <v>13</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14" s="10">
+        <v>80962822094</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O14" s="10">
+        <v>56000</v>
+      </c>
+      <c r="P14" s="10">
+        <v>8096282207</v>
+      </c>
+      <c r="Q14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="R14" s="17">
+        <v>6</v>
+      </c>
+      <c r="S14" s="13">
+        <v>8</v>
+      </c>
+      <c r="T14" s="13">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="10">
+        <v>14</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="I15" s="10">
+        <v>80962822095</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O15" s="10">
+        <v>56000</v>
+      </c>
+      <c r="P15" s="10">
+        <v>8096282207</v>
+      </c>
+      <c r="Q15" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="R15" s="17">
+        <v>9</v>
+      </c>
+      <c r="S15" s="13">
+        <v>10</v>
+      </c>
+      <c r="T15" s="13">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="10">
+        <v>15</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16" s="10">
+        <v>80962822096</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O16" s="10">
+        <v>56000</v>
+      </c>
+      <c r="P16" s="10">
+        <v>8096282207</v>
+      </c>
+      <c r="Q16" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="R16" s="17">
+        <v>13</v>
+      </c>
+      <c r="S16" s="13">
+        <v>11</v>
+      </c>
+      <c r="T16" s="13">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="10">
+        <v>16</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17" s="10">
+        <v>80962822097</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O17" s="10">
+        <v>56000</v>
+      </c>
+      <c r="P17" s="10">
+        <v>8096282207</v>
+      </c>
+      <c r="Q17" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="R17" s="17">
+        <v>10</v>
+      </c>
+      <c r="S17" s="13">
+        <v>7</v>
+      </c>
+      <c r="T17" s="13">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="10">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="10">
+        <v>17</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="I18" s="10">
+        <v>80962822098</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O18" s="10">
+        <v>56000</v>
+      </c>
+      <c r="P18" s="10">
+        <v>8096282207</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="R18" s="17">
+        <v>8</v>
+      </c>
+      <c r="S18" s="13">
+        <v>6</v>
+      </c>
+      <c r="T18" s="13">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="10">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="10">
+        <v>18</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="I19" s="10">
+        <v>80962822099</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O19" s="10">
+        <v>56000</v>
+      </c>
+      <c r="P19" s="10">
+        <v>8096282207</v>
+      </c>
+      <c r="Q19" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="R19" s="17">
+        <v>28</v>
+      </c>
+      <c r="S19" s="13">
+        <v>4</v>
+      </c>
+      <c r="T19" s="13">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="10">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="10">
+        <v>19</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="I20" s="10">
+        <v>80962822090</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O20" s="10">
+        <v>56000</v>
+      </c>
+      <c r="P20" s="10">
+        <v>8096282207</v>
+      </c>
+      <c r="Q20" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="R20" s="17">
+        <v>5</v>
+      </c>
+      <c r="S20" s="13">
+        <v>12</v>
+      </c>
+      <c r="T20" s="13">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="4">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="4">
+        <v>19</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="H21" t="s">
+        <v>87</v>
+      </c>
+      <c r="I21" s="10">
+        <v>80962822090</v>
+      </c>
+      <c r="J21" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21" t="s">
+        <v>47</v>
+      </c>
+      <c r="L21" t="s">
+        <v>48</v>
+      </c>
+      <c r="M21" t="s">
+        <v>116</v>
+      </c>
+      <c r="N21" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21">
+        <v>56000</v>
+      </c>
+      <c r="P21">
+        <v>8096282207</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>50</v>
+      </c>
+      <c r="R21">
+        <v>5</v>
+      </c>
+      <c r="S21">
+        <v>12</v>
+      </c>
+      <c r="T21">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="4">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="4">
+        <v>20</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" t="s">
+        <v>122</v>
+      </c>
+      <c r="G22" t="s">
+        <v>119</v>
+      </c>
+      <c r="H22" t="s">
+        <v>90</v>
+      </c>
+      <c r="I22">
+        <v>80962822090</v>
+      </c>
+      <c r="J22" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" t="s">
+        <v>47</v>
+      </c>
+      <c r="L22" t="s">
+        <v>48</v>
+      </c>
+      <c r="M22" t="s">
+        <v>123</v>
+      </c>
+      <c r="N22" t="s">
+        <v>16</v>
+      </c>
+      <c r="O22">
+        <v>56000</v>
+      </c>
+      <c r="P22">
+        <v>8096282207</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>50</v>
+      </c>
+      <c r="R22">
+        <v>5</v>
+      </c>
+      <c r="S22">
+        <v>3</v>
+      </c>
+      <c r="T22">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="4">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="4">
+        <v>21</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" t="s">
+        <v>125</v>
+      </c>
+      <c r="G23" t="s">
+        <v>119</v>
+      </c>
+      <c r="H23" t="s">
+        <v>91</v>
+      </c>
+      <c r="I23">
+        <v>80962822090</v>
+      </c>
+      <c r="J23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" t="s">
+        <v>47</v>
+      </c>
+      <c r="L23" t="s">
+        <v>48</v>
+      </c>
+      <c r="M23" t="s">
+        <v>126</v>
+      </c>
+      <c r="N23" t="s">
+        <v>16</v>
+      </c>
+      <c r="O23">
+        <v>56000</v>
+      </c>
+      <c r="P23">
+        <v>8096282207</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>50</v>
+      </c>
+      <c r="R23">
+        <v>5</v>
+      </c>
+      <c r="S23">
+        <v>12</v>
+      </c>
+      <c r="T23">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="4">
+        <v>22</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="4">
+        <v>22</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24" t="s">
+        <v>128</v>
+      </c>
+      <c r="G24" t="s">
+        <v>120</v>
+      </c>
+      <c r="H24" t="s">
+        <v>92</v>
+      </c>
+      <c r="I24">
+        <v>80962822090</v>
+      </c>
+      <c r="J24" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24" t="s">
+        <v>47</v>
+      </c>
+      <c r="L24" t="s">
+        <v>48</v>
+      </c>
+      <c r="M24" t="s">
+        <v>129</v>
+      </c>
+      <c r="N24" t="s">
+        <v>16</v>
+      </c>
+      <c r="O24">
+        <v>56000</v>
+      </c>
+      <c r="P24">
+        <v>8096282207</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>50</v>
+      </c>
+      <c r="R24">
+        <v>4</v>
+      </c>
+      <c r="S24">
+        <v>8</v>
+      </c>
+      <c r="T24">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="4">
+        <v>23</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="4">
+        <v>23</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25" t="s">
+        <v>131</v>
+      </c>
+      <c r="G25" t="s">
+        <v>120</v>
+      </c>
+      <c r="H25" t="s">
+        <v>90</v>
+      </c>
+      <c r="I25">
+        <v>80962822090</v>
+      </c>
+      <c r="J25" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25" t="s">
+        <v>47</v>
+      </c>
+      <c r="L25" t="s">
+        <v>48</v>
+      </c>
+      <c r="M25" t="s">
+        <v>132</v>
+      </c>
+      <c r="N25" t="s">
+        <v>16</v>
+      </c>
+      <c r="O25">
+        <v>56000</v>
+      </c>
+      <c r="P25">
+        <v>8096282207</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>50</v>
+      </c>
+      <c r="R25">
+        <v>8</v>
+      </c>
+      <c r="S25">
+        <v>9</v>
+      </c>
+      <c r="T25">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="4">
+        <v>24</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="4">
+        <v>24</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F26" t="s">
+        <v>134</v>
+      </c>
+      <c r="G26" t="s">
+        <v>119</v>
+      </c>
+      <c r="H26" t="s">
+        <v>91</v>
+      </c>
+      <c r="I26">
+        <v>80962822090</v>
+      </c>
+      <c r="J26" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" t="s">
+        <v>47</v>
+      </c>
+      <c r="L26" t="s">
+        <v>48</v>
+      </c>
+      <c r="M26" t="s">
+        <v>135</v>
+      </c>
+      <c r="N26" t="s">
+        <v>16</v>
+      </c>
+      <c r="O26">
+        <v>56000</v>
+      </c>
+      <c r="P26">
+        <v>8096282207</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>50</v>
+      </c>
+      <c r="R26">
+        <v>9</v>
+      </c>
+      <c r="S26">
+        <v>10</v>
+      </c>
+      <c r="T26">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="4">
+        <v>25</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="4">
+        <v>25</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="I27">
+        <v>80962822090</v>
+      </c>
+      <c r="J27" t="s">
+        <v>46</v>
+      </c>
+      <c r="K27" t="s">
+        <v>47</v>
+      </c>
+      <c r="L27" t="s">
+        <v>48</v>
+      </c>
+      <c r="M27" t="s">
+        <v>144</v>
+      </c>
+      <c r="N27" t="s">
+        <v>16</v>
+      </c>
+      <c r="O27">
+        <v>56000</v>
+      </c>
+      <c r="P27">
+        <v>8096282207</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>50</v>
+      </c>
+      <c r="R27">
+        <v>10</v>
+      </c>
+      <c r="S27">
+        <v>11</v>
+      </c>
+      <c r="T27">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="4">
+        <v>26</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="4">
+        <v>26</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="I28">
+        <v>80962822090</v>
+      </c>
+      <c r="J28" t="s">
+        <v>46</v>
+      </c>
+      <c r="K28" t="s">
+        <v>47</v>
+      </c>
+      <c r="L28" t="s">
+        <v>48</v>
+      </c>
+      <c r="M28" t="s">
+        <v>145</v>
+      </c>
+      <c r="N28" t="s">
+        <v>16</v>
+      </c>
+      <c r="O28">
+        <v>56000</v>
+      </c>
+      <c r="P28">
+        <v>8096282207</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>50</v>
+      </c>
+      <c r="R28">
+        <v>11</v>
+      </c>
+      <c r="S28">
+        <v>12</v>
+      </c>
+      <c r="T28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="4">
+        <v>27</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="4">
+        <v>27</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="I29">
+        <v>80962822090</v>
+      </c>
+      <c r="J29" t="s">
+        <v>46</v>
+      </c>
+      <c r="K29" t="s">
+        <v>47</v>
+      </c>
+      <c r="L29" t="s">
+        <v>48</v>
+      </c>
+      <c r="M29" t="s">
+        <v>146</v>
+      </c>
+      <c r="N29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O29">
+        <v>56000</v>
+      </c>
+      <c r="P29">
+        <v>8096282207</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>50</v>
+      </c>
+      <c r="R29">
+        <v>12</v>
+      </c>
+      <c r="S29">
+        <v>13</v>
+      </c>
+      <c r="T29">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="4">
+        <v>28</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="4">
+        <v>28</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="I30">
+        <v>80962822090</v>
+      </c>
+      <c r="J30" t="s">
+        <v>46</v>
+      </c>
+      <c r="K30" t="s">
+        <v>47</v>
+      </c>
+      <c r="L30" t="s">
+        <v>48</v>
+      </c>
+      <c r="M30" t="s">
+        <v>149</v>
+      </c>
+      <c r="N30" t="s">
+        <v>16</v>
+      </c>
+      <c r="O30">
+        <v>56000</v>
+      </c>
+      <c r="P30">
+        <v>8096282207</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>50</v>
+      </c>
+      <c r="R30">
+        <v>13</v>
+      </c>
+      <c r="S30">
+        <v>4</v>
+      </c>
+      <c r="T30">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="4">
+        <v>29</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="4">
+        <v>29</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="I31">
+        <v>80962822090</v>
+      </c>
+      <c r="J31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" t="s">
+        <v>47</v>
+      </c>
+      <c r="L31" t="s">
+        <v>48</v>
+      </c>
+      <c r="M31" t="s">
+        <v>150</v>
+      </c>
+      <c r="N31" t="s">
+        <v>16</v>
+      </c>
+      <c r="O31">
+        <v>56000</v>
+      </c>
+      <c r="P31">
+        <v>8096282207</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>50</v>
+      </c>
+      <c r="R31">
+        <v>14</v>
+      </c>
+      <c r="S31">
+        <v>6</v>
+      </c>
+      <c r="T31">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="4">
+        <v>30</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="4">
+        <v>30</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="I32">
+        <v>80962822090</v>
+      </c>
+      <c r="J32" t="s">
+        <v>46</v>
+      </c>
+      <c r="K32" t="s">
+        <v>47</v>
+      </c>
+      <c r="L32" t="s">
+        <v>48</v>
+      </c>
+      <c r="M32" t="s">
+        <v>151</v>
+      </c>
+      <c r="N32" t="s">
+        <v>16</v>
+      </c>
+      <c r="O32">
+        <v>56000</v>
+      </c>
+      <c r="P32">
+        <v>8096282207</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>50</v>
+      </c>
+      <c r="R32">
+        <v>15</v>
+      </c>
+      <c r="S32">
+        <v>8</v>
+      </c>
+      <c r="T32">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="4">
+        <v>31</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="4">
+        <v>31</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="F33" t="s">
+        <v>134</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H33" t="s">
+        <v>90</v>
+      </c>
+      <c r="I33">
+        <v>80962822090</v>
+      </c>
+      <c r="J33" t="s">
+        <v>46</v>
+      </c>
+      <c r="K33" t="s">
+        <v>47</v>
+      </c>
+      <c r="L33" t="s">
+        <v>48</v>
+      </c>
+      <c r="M33" t="s">
+        <v>155</v>
+      </c>
+      <c r="N33" t="s">
+        <v>16</v>
+      </c>
+      <c r="O33">
+        <v>56000</v>
+      </c>
+      <c r="P33">
+        <v>8096282207</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>50</v>
+      </c>
+      <c r="R33">
+        <v>16</v>
+      </c>
+      <c r="S33">
+        <v>6</v>
+      </c>
+      <c r="T33">
+        <v>1938</v>
       </c>
     </row>
   </sheetData>
@@ -1011,8 +3110,33 @@
     <hyperlink ref="E2" r:id="rId1"/>
     <hyperlink ref="E3" r:id="rId2"/>
     <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
+    <hyperlink ref="E8:E13" r:id="rId7" display="abcdefg@gmail.com"/>
+    <hyperlink ref="E8" r:id="rId8"/>
+    <hyperlink ref="E9" r:id="rId9"/>
+    <hyperlink ref="E10" r:id="rId10"/>
+    <hyperlink ref="E11" r:id="rId11"/>
+    <hyperlink ref="E12" r:id="rId12"/>
+    <hyperlink ref="E13" r:id="rId13"/>
+    <hyperlink ref="E14" r:id="rId14"/>
+    <hyperlink ref="E15" r:id="rId15"/>
+    <hyperlink ref="E16" r:id="rId16"/>
+    <hyperlink ref="E17" r:id="rId17"/>
+    <hyperlink ref="E18" r:id="rId18"/>
+    <hyperlink ref="E19" r:id="rId19"/>
+    <hyperlink ref="E20" r:id="rId20"/>
+    <hyperlink ref="E28" r:id="rId21"/>
+    <hyperlink ref="E29" r:id="rId22"/>
+    <hyperlink ref="E27" r:id="rId23"/>
+    <hyperlink ref="E30" r:id="rId24"/>
+    <hyperlink ref="E31" r:id="rId25"/>
+    <hyperlink ref="E32" r:id="rId26"/>
+    <hyperlink ref="E33" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
@@ -1034,11 +3158,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1">
       <c r="A2" s="5" t="s">
@@ -1083,11 +3207,11 @@
       <c r="C5" s="6">
         <v>8096282209</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="6">
@@ -1342,11 +3466,11 @@
       </c>
     </row>
     <row r="23" spans="6:8">
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
     </row>
     <row r="24" spans="6:8">
       <c r="F24" s="5" t="s">
